--- a/data/input data/datasheet summer 2024.xlsx
+++ b/data/input data/datasheet summer 2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Wetshare\Wetshare (downsizing)\Insect Study\data\input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merinj6\Desktop\insect study\data\input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="173">
   <si>
     <t>unique_id</t>
   </si>
@@ -368,19 +368,181 @@
     <t>calliphora</t>
   </si>
   <si>
-    <t>white/black</t>
-  </si>
-  <si>
-    <t>checkered white</t>
-  </si>
-  <si>
-    <t>pontia</t>
-  </si>
-  <si>
-    <t>protodice</t>
-  </si>
-  <si>
     <t>amblypsilopus</t>
+  </si>
+  <si>
+    <t>brown lime</t>
+  </si>
+  <si>
+    <t>cabbage white</t>
+  </si>
+  <si>
+    <t>falcate orangetip</t>
+  </si>
+  <si>
+    <t>Anthocharis</t>
+  </si>
+  <si>
+    <t>midea</t>
+  </si>
+  <si>
+    <t>white/orange</t>
+  </si>
+  <si>
+    <t>rapae</t>
+  </si>
+  <si>
+    <t>atroviridis</t>
+  </si>
+  <si>
+    <t>brown/lime</t>
+  </si>
+  <si>
+    <t>Black Chokeberry</t>
+  </si>
+  <si>
+    <t>Aronia melanocarpa</t>
+  </si>
+  <si>
+    <t>spotted-lantern fly</t>
+  </si>
+  <si>
+    <t>Lycorma</t>
+  </si>
+  <si>
+    <t>delicatula</t>
+  </si>
+  <si>
+    <t>fulgoridae</t>
+  </si>
+  <si>
+    <t>eastern black carpentar ant</t>
+  </si>
+  <si>
+    <t>formicidae</t>
+  </si>
+  <si>
+    <t>camponotus</t>
+  </si>
+  <si>
+    <t>pennsylvanicus</t>
+  </si>
+  <si>
+    <t>red/black</t>
+  </si>
+  <si>
+    <t>two-spotted ladybug</t>
+  </si>
+  <si>
+    <t>Coleoptera</t>
+  </si>
+  <si>
+    <t>Coccinellidae</t>
+  </si>
+  <si>
+    <t>Adalia</t>
+  </si>
+  <si>
+    <t>bipunctata</t>
+  </si>
+  <si>
+    <t>brown/orange</t>
+  </si>
+  <si>
+    <t>chestnut carpentar ant</t>
+  </si>
+  <si>
+    <t>castaneus</t>
+  </si>
+  <si>
+    <t>Common milkweed</t>
+  </si>
+  <si>
+    <t>Asclepias syriaca</t>
+  </si>
+  <si>
+    <t>spicebush swallowtail</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Papilionidae</t>
+  </si>
+  <si>
+    <t>Papilio</t>
+  </si>
+  <si>
+    <t>troilus</t>
+  </si>
+  <si>
+    <t>black ant</t>
+  </si>
+  <si>
+    <t>monomorium</t>
+  </si>
+  <si>
+    <t>viridum</t>
+  </si>
+  <si>
+    <t>metalic blue</t>
+  </si>
+  <si>
+    <t>ground beetle</t>
+  </si>
+  <si>
+    <t>Carabidae</t>
+  </si>
+  <si>
+    <t>Carabus</t>
+  </si>
+  <si>
+    <t>milkweed beetle</t>
+  </si>
+  <si>
+    <t>tetrophthalmus</t>
+  </si>
+  <si>
+    <t>Tetraopes</t>
+  </si>
+  <si>
+    <t>Cerambycidae</t>
+  </si>
+  <si>
+    <t>blue bottle fly</t>
+  </si>
+  <si>
+    <t>Calliphora</t>
+  </si>
+  <si>
+    <t>vomitoria</t>
+  </si>
+  <si>
+    <t>Curculionidae</t>
+  </si>
+  <si>
+    <t>Lixus</t>
+  </si>
+  <si>
+    <t>weevil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black </t>
+  </si>
+  <si>
+    <t>bombylid flies</t>
+  </si>
+  <si>
+    <t>bombyliidae</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>smooth meadow grass</t>
+  </si>
+  <si>
+    <t>Poa pratensis</t>
   </si>
 </sst>
 </file>
@@ -711,12 +873,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,6 +3787,12 @@
       <c r="L55" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="O55" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P55" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q55" s="1" t="s">
         <v>31</v>
       </c>
@@ -3672,6 +3840,12 @@
       <c r="L56" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="O56" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P56" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q56" s="1" t="s">
         <v>31</v>
       </c>
@@ -3719,6 +3893,12 @@
       <c r="L57" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="O57" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P57" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q57" s="1" t="s">
         <v>31</v>
       </c>
@@ -3766,6 +3946,12 @@
       <c r="L58" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="O58" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P58" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q58" s="1" t="s">
         <v>31</v>
       </c>
@@ -3816,6 +4002,12 @@
       <c r="M59" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="O59" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q59" s="1" t="s">
         <v>31</v>
       </c>
@@ -3863,11 +4055,20 @@
       <c r="L60" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="O60" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P60" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="T60" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -3907,11 +4108,20 @@
       <c r="L61" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="O61" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P61" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q61" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="T61" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -3951,11 +4161,20 @@
       <c r="L62" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="O62" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P62" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q62" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="T62" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -3995,11 +4214,20 @@
       <c r="L63" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="O63" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P63" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q63" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="T63" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4022,13 +4250,13 @@
         <v>0.46388888888888902</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>83</v>
@@ -4037,10 +4265,16 @@
         <v>82</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="O64" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P64" s="1">
+        <v>-74.106459200000003</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>31</v>
@@ -4048,8 +4282,11 @@
       <c r="R64" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4081,7 +4318,13 @@
         <v>42</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="O65" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P65" s="1">
+        <v>-74.106459200000003</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>31</v>
@@ -4089,8 +4332,11 @@
       <c r="R65" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4109,14 +4355,44 @@
       <c r="F66" s="3">
         <v>0.46388888888888902</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O66" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P66" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q66" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4135,14 +4411,44 @@
       <c r="F67" s="3">
         <v>0.46388888888888902</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O67" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P67" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4161,14 +4467,44 @@
       <c r="F68" s="3">
         <v>0.46388888888888902</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O68" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P68" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q68" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4187,14 +4523,44 @@
       <c r="F69" s="3">
         <v>0.46388888888888902</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O69" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P69" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4213,61 +4579,3252 @@
       <c r="F70" s="3">
         <v>0.46388888888888902</v>
       </c>
+      <c r="G70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O70" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P70" s="1">
+        <v>-74.106459200000003</v>
+      </c>
       <c r="Q70" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.46388888888888902</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P71" s="1">
+        <v>-74.106459200000003</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.46388888888888902</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O72" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P72" s="1">
+        <v>-74.106459200000003</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.46388888888888902</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O73" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P73" s="1">
+        <v>-74.106459200000003</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.46388888888888902</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P74" s="1">
+        <v>-74.106459200000003</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.46388888888888902</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O75" s="1">
+        <v>40.784875999999997</v>
+      </c>
+      <c r="P75" s="1">
+        <v>-74.106459200000003</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O76" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O77" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P77" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O78" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P78" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P79" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" t="s">
+        <v>42</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O80" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P80" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O81" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P81" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O82" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P82" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O83" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P83" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O84" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P84" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O85" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P85" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O86" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O87" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P87" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O88" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P88" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O89" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P89" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O90" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P90" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.48055555555555601</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O91" s="1">
+        <v>40.7850605</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-74.107309400000005</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O92" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P92" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O93" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P93" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O94" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P94" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O95" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P95" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O96" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P96" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O97" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P97" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O98" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P98" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O99" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P99" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O100" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P100" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O101" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P101" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O102" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P102" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O103" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P103" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O104" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P104" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O105" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P105" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O106" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P106" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O107" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O108" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P108" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O109" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P109" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O110" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P110" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O111" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P111" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O112" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P112" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O113" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P113" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O114" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P114" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O115" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P115" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O116" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P116" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O117" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P117" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O118" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P118" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O119" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P119" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.50138888888888899</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O120" s="1">
+        <v>40.785467699999998</v>
+      </c>
+      <c r="P120" s="1">
+        <v>-74.104127300000002</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="T121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="T122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
